--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC56009-2CC7-4BE2-AB70-74F5CDDE034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480F3046-B977-4BCA-B28E-B00FAE9E70D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
@@ -35,15 +35,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>o1-mini</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>what is the capital of france</t>
+  </si>
+  <si>
+    <t>test question 1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,13 +113,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +153,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G40" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}"/>
+  <tableColumns count="7">
+    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group"/>
+    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title"/>
+    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model"/>
+    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge"/>
+    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question"/>
+    <tableColumn id="4" xr3:uid="{2065C010-CA79-4BB9-B814-07A86051B549}" name="history"/>
+    <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="output" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +490,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193C8B84-B43D-47A8-88F6-ECA9D8BD4BBC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>g1-test question 1.sql</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480F3046-B977-4BCA-B28E-B00FAE9E70D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E20B4F7-69E4-45C7-AD61-FF0AD13A3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E20B4F7-69E4-45C7-AD61-FF0AD13A3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6681463-FF79-468C-8BE4-E60DC8F7C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>knowledge</t>
   </si>
@@ -44,9 +44,6 @@
     <t>question</t>
   </si>
   <si>
-    <t>output</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -65,13 +62,84 @@
     <t>title</t>
   </si>
   <si>
-    <t>what is the capital of france</t>
-  </si>
-  <si>
-    <t>test question 1</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>from os import name
+import pandas as pd
+import openpyxl
+import openai
+import logging
+logging.basicConfig(filename='output.log', level=logging.INFO,
+                    format='%(asctime)s - %(levelname)s - %(message)s')
+class Model:
+    def init(self, title, group, knowledge, question, output, m):
+        self.title = title
+        self.group = group
+        self.question = question
+        self.m = m
+        self.knowledge = knowledge
+        self.output = output
+def processmodelswith_openai(models, token):
+    openai.api_key = token
+    for model in models:
+        try:
+            logging.info(f"{model.title}: {model.output}")
+            response = openai.ChatCompletion.create(
+                model=model.m,
+                messages=[
+                    {"role": "system", "content": "You are a helpful assistant."},
+                    {"role": "user", "content": f"Context: {model.knowledge}\nQuestion: {model.question}"}
+                ]
+            )
+            model.output = response.choices[0].message['content'].strip()
+            logging.info(f"{model.title}: {model.output}")
+        except Exception as e:
+            logging.error(f"OpenAI API error for {model.title}: {e}")
+def readexcel(filepath, group_filter):
+    try:
+        logging.info("Reading file " + filepath + " with group " + group_filter)
+        df = pd.read_excel(filepath)
+        models = []
+        for _, row in df.iterrows():
+            title = row.get('title')
+            group = row.get('group')
+            question = row.get('question')
+            m = row.get('model')
+            knowledge = row.get('knowledge')
+            output = row.get('output')
+            if title and group and knowledge and pd.notna(group) and group == group_filter:
+                model = Model(title, group, knowledge, question, output, m)
+                models.append(model)
+                logging.info(f"Model: {m} Title: {title}, Group: {group}, Knowledge: {knowledge}, Question: {question}, Output: {output}")
+            else:
+                logging.debug("Missing or unmatched data in row: " + str(row))
+        return models
+    except FileNotFoundError:
+        logging.error("File not found: " + filepath)
+        return []
+    except Exception as e:
+        logging.error("Error: " + str(e))
+        return []
+def main(filename, group, token):
+    logging.info(f"Processing file: {filename} for group: {group}")
+    models = readexcel(filename, group)
+    processmodelswith_openai(models, token)
+    for model in models:
+        print(model.title, model.group, model.knowledge, model.output)
+import sys
+print("start")
+logging.info("Batch processing started")
+if len(sys.argv) &gt; 3:
+    filename = sys.argv[1]
+    group = sys.argv[2]
+    token = sys.argv[3]
+    main(filename, group, token)
+else:
+    print("Provide Excel file, group, and token.")</t>
+  </si>
+  <si>
+    <t>convert to powershell</t>
+  </si>
+  <si>
+    <t>outputfile</t>
   </si>
 </sst>
 </file>
@@ -87,10 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Congenial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,16 +180,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -135,12 +218,111 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
+        <name val="Congenial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,16 +338,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:G40" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group"/>
-    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title"/>
-    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model"/>
-    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge"/>
-    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question"/>
-    <tableColumn id="4" xr3:uid="{2065C010-CA79-4BB9-B814-07A86051B549}" name="history"/>
-    <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="output" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2065C010-CA79-4BB9-B814-07A86051B549}" name="history" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="outputfile" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -493,27 +675,29 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" customWidth="1"/>
-    <col min="5" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -522,258 +706,257 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>g1-test question 1.sql</v>
+        <v>g1-convert to powershell.sql</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G3" t="str">
+      <c r="G3" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G4" t="str">
+      <c r="G4" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" t="str">
+      <c r="G5" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="str">
+      <c r="G6" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" t="str">
+      <c r="G7" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" t="str">
+      <c r="G8" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" t="str">
+      <c r="G9" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" t="str">
+      <c r="G11" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" t="str">
+      <c r="G13" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="str">
+      <c r="G14" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" t="str">
+      <c r="G15" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="str">
+      <c r="G16" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="str">
+      <c r="G18" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" t="str">
+      <c r="G19" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" t="str">
+      <c r="G20" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" t="str">
+      <c r="G21" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" t="str">
+      <c r="G23" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" t="str">
+      <c r="G24" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" t="str">
+      <c r="G25" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" t="str">
+      <c r="G26" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" t="str">
+      <c r="G28" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" t="str">
+      <c r="G29" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" t="str">
+      <c r="G30" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" t="str">
+      <c r="G31" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" t="str">
+      <c r="G33" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" t="str">
+      <c r="G34" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" t="str">
+      <c r="G35" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" t="str">
+      <c r="G36" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G38" t="str">
+      <c r="G38" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G39" t="str">
+      <c r="G39" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G40" t="str">
+      <c r="G40" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>

--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6681463-FF79-468C-8BE4-E60DC8F7C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98E045-CE37-4ED0-B5F6-D1E00D6E5115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>knowledge</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>o1-mini</t>
-  </si>
-  <si>
-    <t>history</t>
   </si>
   <si>
     <t>group</t>
@@ -192,7 +189,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -310,20 +307,6 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Congenial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -338,15 +321,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G40" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}"/>
-  <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2065C010-CA79-4BB9-B814-07A86051B549}" name="history" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F40" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}"/>
+  <tableColumns count="6">
+    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="outputfile" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</calculatedColumnFormula>
     </tableColumn>
@@ -672,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193C8B84-B43D-47A8-88F6-ECA9D8BD4BBC}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -683,18 +665,18 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -706,257 +688,254 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>g1-convert to powershell.sql</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G3" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G4" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G40" s="1" t="str">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="str">
+        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>

--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98E045-CE37-4ED0-B5F6-D1E00D6E5115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1774E8-205B-4EA0-9B53-877EB9F90C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>knowledge</t>
   </si>
@@ -59,84 +59,22 @@
     <t>title</t>
   </si>
   <si>
-    <t>from os import name
-import pandas as pd
-import openpyxl
-import openai
-import logging
-logging.basicConfig(filename='output.log', level=logging.INFO,
-                    format='%(asctime)s - %(levelname)s - %(message)s')
-class Model:
-    def init(self, title, group, knowledge, question, output, m):
-        self.title = title
-        self.group = group
-        self.question = question
-        self.m = m
-        self.knowledge = knowledge
-        self.output = output
-def processmodelswith_openai(models, token):
-    openai.api_key = token
-    for model in models:
-        try:
-            logging.info(f"{model.title}: {model.output}")
-            response = openai.ChatCompletion.create(
-                model=model.m,
-                messages=[
-                    {"role": "system", "content": "You are a helpful assistant."},
-                    {"role": "user", "content": f"Context: {model.knowledge}\nQuestion: {model.question}"}
-                ]
-            )
-            model.output = response.choices[0].message['content'].strip()
-            logging.info(f"{model.title}: {model.output}")
-        except Exception as e:
-            logging.error(f"OpenAI API error for {model.title}: {e}")
-def readexcel(filepath, group_filter):
-    try:
-        logging.info("Reading file " + filepath + " with group " + group_filter)
-        df = pd.read_excel(filepath)
-        models = []
-        for _, row in df.iterrows():
-            title = row.get('title')
-            group = row.get('group')
-            question = row.get('question')
-            m = row.get('model')
-            knowledge = row.get('knowledge')
-            output = row.get('output')
-            if title and group and knowledge and pd.notna(group) and group == group_filter:
-                model = Model(title, group, knowledge, question, output, m)
-                models.append(model)
-                logging.info(f"Model: {m} Title: {title}, Group: {group}, Knowledge: {knowledge}, Question: {question}, Output: {output}")
-            else:
-                logging.debug("Missing or unmatched data in row: " + str(row))
-        return models
-    except FileNotFoundError:
-        logging.error("File not found: " + filepath)
-        return []
-    except Exception as e:
-        logging.error("Error: " + str(e))
-        return []
-def main(filename, group, token):
-    logging.info(f"Processing file: {filename} for group: {group}")
-    models = readexcel(filename, group)
-    processmodelswith_openai(models, token)
-    for model in models:
-        print(model.title, model.group, model.knowledge, model.output)
-import sys
-print("start")
-logging.info("Batch processing started")
-if len(sys.argv) &gt; 3:
-    filename = sys.argv[1]
-    group = sys.argv[2]
-    token = sys.argv[3]
-    main(filename, group, token)
-else:
-    print("Provide Excel file, group, and token.")</t>
-  </si>
-  <si>
-    <t>convert to powershell</t>
-  </si>
-  <si>
     <t>outputfile</t>
+  </si>
+  <si>
+    <t>&lt;Measure name="Total Sales" Aggregator="Sum" Column="FactTable.SalesAmount" /&gt;</t>
+  </si>
+  <si>
+    <t>g1 total sales sum measure</t>
+  </si>
+  <si>
+    <t>g1 total sales avg measure</t>
+  </si>
+  <si>
+    <t>&lt;Measure name="Total Sales" Aggregator="Avg" Column="FactTable.SalesAmount" /&gt;</t>
+  </si>
+  <si>
+    <t>convert ssas measure to a sql server function.  Just give me the function code. Ne comments or explanation</t>
   </si>
 </sst>
 </file>
@@ -177,11 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -202,7 +137,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -220,7 +155,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -235,7 +170,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -249,7 +184,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -263,7 +198,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -277,7 +212,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -291,7 +226,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -305,7 +240,7 @@
         <name val="Congenial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,21 +592,21 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -688,253 +623,268 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>g1-convert to powershell.sql</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>g1-g1 total sales sum measure.sql</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>g1-g1 total sales avg measure.sql</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>

--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1774E8-205B-4EA0-9B53-877EB9F90C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD089E9-8752-424C-8344-51C238567544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
+    <workbookView xWindow="-180" yWindow="1572" windowWidth="29652" windowHeight="15912" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>knowledge</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>convert ssas measure to a sql server function.  Just give me the function code. Ne comments or explanation</t>
+  </si>
+  <si>
+    <t>I want to mock the fact table but I want best performance. Will this be a hit to performance?</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -601,12 +604,12 @@
     <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,14 +643,14 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>g1-g1 total sales sum measure.sql</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,223 +671,223 @@
         <v>g1-g1 total sales avg measure.sql</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="17" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="18" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="19" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="20" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="21" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="22" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="23" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="24" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="25" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="26" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="27" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="28" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="29" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="30" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="31" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="32" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="33" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="34" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="35" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="36" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="37" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="38" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="39" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>
       </c>
     </row>
-    <row r="40" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="str">
         <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
         <v>-.sql</v>

--- a/robodogbatch/batch.xlsx
+++ b/robodogbatch/batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\robodog\robodogbatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\robodog\robodogbatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1774E8-205B-4EA0-9B53-877EB9F90C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5541FD23-F7D9-4C04-B2E0-430C16282324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D4159D3E-8F98-4802-931F-BFE7F7EE349F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,38 +125,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Congenial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Congenial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -242,6 +210,38 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Congenial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -256,16 +256,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}" name="Table1" displayName="Table1" ref="A1:F40" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F40" xr:uid="{3F6D7AD0-548E-493E-8FEE-6A7644BA1359}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="outputfile" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DA0A2F2D-8DA7-407F-B6B2-A74ECFF92972}" name="group" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6B5C1B0C-27B1-44C9-BF04-5193F68E5458}" name="title" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CAF02E2F-0949-47EB-903F-DE28856423A0}" name="model" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AEF81E2B-F147-45F0-A5BC-75A861F6E740}" name="knowledge" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{70B3A015-A065-4B7E-BAAE-06240E3317CD}" name="question" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EDC21A54-3D52-4347-8EB9-72114D15271E}" name="outputfile" dataDxfId="0">
+      <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,11 +643,11 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>g1-g1 total sales sum measure.sql</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>g1-g1totalsalessummeasure.sql</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,229 +664,229 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>g1-g1 total sales avg measure.sql</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>g1-g1totalsalesavgmeasure.sql</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
-        <v>-.sql</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
+        <v>-.sql</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="str">
-        <f>Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql"</f>
+        <f>SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[group]]&amp;"-"&amp;Table1[[#This Row],[title]]&amp;".sql", " ", ""), "%", "")</f>
         <v>-.sql</v>
       </c>
     </row>
